--- a/exports/PackSize-Flexibility/3-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/3-RandomVariable.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.01776649746192894</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9720812182741116</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.02791878172588833</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9593908629441624</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.03299492385786802</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.03807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9289340101522843</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.05076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.01776649746192894</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8984771573604061</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.04568527918781726</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8908629441624365</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.03807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.03299492385786802</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.03045685279187817</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1567,22 +1567,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8908629441624365</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.0532994923857868</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9086294416243654</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.04314720812182741</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.03299492385786802</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9263959390862944</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.0583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9187817258883249</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.06345177664974619</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9593908629441624</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9695431472081218</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9695431472081218</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.03045685279187817</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9771573604060914</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.01776649746192894</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.01776649746192894</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9771573604060914</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9898477157360406</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9695431472081218</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.02538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9517766497461929</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0.04314720812182741</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9517766497461929</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.03299492385786802</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2267,16 +2267,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9543147208121827</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9568527918781726</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9670050761421319</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.03299492385786802</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9593908629441624</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0.03807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9898477157360406</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9898477157360406</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3887,1782 +3887,402 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0.4</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1.6</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0.2</v>
-      </c>
-      <c r="C29">
-        <v>0.2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0.2</v>
-      </c>
-      <c r="F29">
-        <v>0.4</v>
-      </c>
-      <c r="G29">
-        <v>0.4</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0.4</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E30">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-      <c r="G30">
-        <v>0.5</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K30">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C31">
-        <v>0.4</v>
-      </c>
-      <c r="D31">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="E31">
-        <v>0.4</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="K31">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0.1</v>
-      </c>
-      <c r="D32">
-        <v>0.1</v>
-      </c>
-      <c r="E32">
-        <v>0.6</v>
-      </c>
-      <c r="F32">
-        <v>0.2</v>
-      </c>
-      <c r="G32">
-        <v>0.1</v>
-      </c>
-      <c r="H32">
-        <v>0.2</v>
-      </c>
-      <c r="I32">
-        <v>0.1</v>
-      </c>
-      <c r="J32">
-        <v>0.4</v>
-      </c>
-      <c r="K32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="F33">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="J33">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="K33">
-        <v>0.3529411764705883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="E34">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="F34">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="I34">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="J34">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="K34">
-        <v>0.2352941176470588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C35">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D35">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="J35">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="E36">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="F36">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="J36">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.08</v>
-      </c>
-      <c r="C37">
-        <v>0.24</v>
-      </c>
-      <c r="D37">
-        <v>0.32</v>
-      </c>
-      <c r="E37">
-        <v>0.32</v>
-      </c>
-      <c r="F37">
-        <v>0.16</v>
-      </c>
-      <c r="G37">
-        <v>0.08</v>
-      </c>
-      <c r="H37">
-        <v>0.16</v>
-      </c>
-      <c r="I37">
-        <v>0.32</v>
-      </c>
-      <c r="J37">
-        <v>0.16</v>
-      </c>
-      <c r="K37">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0.2</v>
-      </c>
-      <c r="D38">
-        <v>0.4</v>
-      </c>
-      <c r="E38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="F38">
-        <v>0.2</v>
-      </c>
-      <c r="G38">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="H38">
-        <v>0.2</v>
-      </c>
-      <c r="I38">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K38">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C39">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J39">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.2</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
-      </c>
-      <c r="D40">
-        <v>0.4</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0.2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0.4</v>
-      </c>
-      <c r="I40">
-        <v>0.6</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C41">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D41">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="I41">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C42">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="I42">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.5</v>
-      </c>
-      <c r="H43">
-        <v>0.5</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C44">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="F44">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C45">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D45">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E45">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H45">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0.4</v>
-      </c>
-      <c r="C48">
-        <v>0.4</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0.4</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0.4</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0.5</v>
-      </c>
-      <c r="D49">
-        <v>0.5</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0.5</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G51">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="C52">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="F52">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E53">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F53">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="G53">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H53">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E54">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="F54">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="J54">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="K54">
-        <v>0.1176470588235294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="E55">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="F55">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="G55">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="H55">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="K55">
-        <v>0.1176470588235294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D56">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="E56">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="D57">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="E57">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C58">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D58">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E58">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0.5</v>
-      </c>
-      <c r="C59">
-        <v>0.5</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C61">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C62">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5722,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5757,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5792,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5827,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5862,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5897,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5932,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5967,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6002,7 +4622,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6037,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6072,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6107,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6142,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6177,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6212,7 +4832,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6247,7 +4867,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6282,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6317,7 +4937,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6352,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6387,7 +5007,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6422,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6457,13 +5077,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6492,13 +5112,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -6527,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6562,10 +5182,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6597,13 +5217,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6632,13 +5252,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1649746192893401</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6667,13 +5287,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1632825719120135</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6702,19 +5322,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1611675126903553</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.00338409475465313</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6737,19 +5357,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1594754653130288</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6772,19 +5392,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1560913705583756</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6807,22 +5427,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1510152284263959</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.003807106598984772</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -6842,25 +5462,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1489001692047377</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.003807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6877,22 +5497,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1505922165820643</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.005922165820642978</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -6912,22 +5532,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1531302876480541</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.002961082910321489</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.00338409475465313</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -6947,19 +5567,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1582064297800339</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6982,22 +5602,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1560913705583756</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -7017,16 +5637,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.161590524534687</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.00338409475465313</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7052,19 +5672,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.161590524534687</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.003807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7087,16 +5707,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1628595600676819</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -7122,19 +5742,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7157,13 +5777,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7184,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -7192,16 +5812,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -7227,13 +5847,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -7262,7 +5882,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -7297,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7332,10 +5952,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7367,10 +5987,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7402,7 +6022,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -7437,13 +6057,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -7472,10 +6092,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7507,13 +6127,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -7542,13 +6162,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1649746192893401</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7577,13 +6197,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1632825719120135</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7612,10 +6232,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7647,13 +6267,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7682,10 +6302,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1637055837563452</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0.002961082910321489</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7717,10 +6337,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7752,13 +6372,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7787,10 +6407,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1649746192893401</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7822,10 +6442,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7857,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7892,13 +6512,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -7927,7 +6547,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7962,7 +6582,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7997,7 +6617,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -8032,7 +6652,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -8067,7 +6687,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8102,7 +6722,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8137,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8172,7 +6792,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8207,10 +6827,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -8242,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8277,7 +6897,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8312,7 +6932,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8347,7 +6967,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8382,7 +7002,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8417,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8452,7 +7072,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8487,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8522,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8557,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -8592,7 +7212,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8627,7 +7247,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8662,7 +7282,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -8697,7 +7317,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8732,7 +7352,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -8767,7 +7387,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -8802,7 +7422,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -8837,7 +7457,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -8846,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -8872,7 +7492,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -8907,7 +7527,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -8942,7 +7562,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -8977,7 +7597,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -9012,7 +7632,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -9047,7 +7667,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -9197,1902 +7817,402 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>9.999999999999996</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C26">
-        <v>3.333333333333332</v>
-      </c>
-      <c r="D26">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="C27">
-        <v>2.857142857142856</v>
-      </c>
-      <c r="D27">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="E27">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="F27">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1.428571428571427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1.999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0.9999999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1.874999999999999</v>
-      </c>
-      <c r="D30">
-        <v>3.125000000000001</v>
-      </c>
-      <c r="E30">
-        <v>1.25</v>
-      </c>
-      <c r="F30">
-        <v>1.25</v>
-      </c>
-      <c r="G30">
-        <v>1.249999999999999</v>
-      </c>
-      <c r="H30">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0.6249999999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1.5</v>
-      </c>
-      <c r="D31">
-        <v>3.500000000000001</v>
-      </c>
-      <c r="E31">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1.499999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="C32">
-        <v>2.592592592592592</v>
-      </c>
-      <c r="D32">
-        <v>1.481481481481482</v>
-      </c>
-      <c r="E32">
-        <v>1.851851851851852</v>
-      </c>
-      <c r="F32">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="G32">
-        <v>0.37037037037037</v>
-      </c>
-      <c r="H32">
-        <v>0.3703703703703705</v>
-      </c>
-      <c r="I32">
-        <v>0.3703703703703705</v>
-      </c>
-      <c r="J32">
-        <v>0.3703703703703705</v>
-      </c>
-      <c r="K32">
-        <v>0.74074074074074</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0.25</v>
-      </c>
-      <c r="C33">
-        <v>1.5</v>
-      </c>
-      <c r="D33">
-        <v>4.000000000000001</v>
-      </c>
-      <c r="E33">
-        <v>2.750000000000001</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.2500000000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.2500000000000001</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>2.325581395348836</v>
-      </c>
-      <c r="D34">
-        <v>2.790697674418605</v>
-      </c>
-      <c r="E34">
-        <v>1.86046511627907</v>
-      </c>
-      <c r="F34">
-        <v>0.9302325581395351</v>
-      </c>
-      <c r="G34">
-        <v>0.6976744186046506</v>
-      </c>
-      <c r="H34">
-        <v>0.6976744186046513</v>
-      </c>
-      <c r="I34">
-        <v>0.2325581395348838</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0.465116279069767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>1.666666666666666</v>
-      </c>
-      <c r="D35">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="E35">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F35">
-        <v>0.4761904761904763</v>
-      </c>
-      <c r="G35">
-        <v>0.9523809523809516</v>
-      </c>
-      <c r="H35">
-        <v>0.4761904761904763</v>
-      </c>
-      <c r="I35">
-        <v>0.4761904761904763</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0.7142857142857137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="D36">
-        <v>1.944444444444445</v>
-      </c>
-      <c r="E36">
-        <v>3.055555555555556</v>
-      </c>
-      <c r="F36">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="G36">
-        <v>0.2777777777777775</v>
-      </c>
-      <c r="H36">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="I36">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0.555555555555555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C37">
-        <v>3.448275862068964</v>
-      </c>
-      <c r="D37">
-        <v>1.03448275862069</v>
-      </c>
-      <c r="E37">
-        <v>1.724137931034483</v>
-      </c>
-      <c r="F37">
-        <v>1.03448275862069</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.6896551724137933</v>
-      </c>
-      <c r="I37">
-        <v>0.6896551724137933</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1.034482758620689</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="C38">
-        <v>1.290322580645161</v>
-      </c>
-      <c r="D38">
-        <v>2.580645161290323</v>
-      </c>
-      <c r="E38">
-        <v>1.612903225806452</v>
-      </c>
-      <c r="F38">
-        <v>0.6451612903225807</v>
-      </c>
-      <c r="G38">
-        <v>0.9677419354838702</v>
-      </c>
-      <c r="H38">
-        <v>0.3225806451612904</v>
-      </c>
-      <c r="I38">
-        <v>0.9677419354838712</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0.6451612903225801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.625</v>
-      </c>
-      <c r="C39">
-        <v>1.25</v>
-      </c>
-      <c r="D39">
-        <v>1.25</v>
-      </c>
-      <c r="E39">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>5.624999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D40">
-        <v>2.5</v>
-      </c>
-      <c r="E40">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F40">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="G40">
-        <v>0.8333333333333326</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="K40">
-        <v>1.666666666666665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="F41">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="G41">
-        <v>0.8333333333333326</v>
-      </c>
-      <c r="H41">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="F42">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>4.44444444444444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>4.000000000000001</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1.999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>1.428571428571427</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>5.714285714285709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>2.5</v>
-      </c>
-      <c r="C45">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2.5</v>
-      </c>
-      <c r="G45">
-        <v>1.249999999999999</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1.249999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>6.666666666666661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>3.333333333333332</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>6.666666666666661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>7.5</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>6.666666666666664</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>2.727272727272727</v>
-      </c>
-      <c r="C52">
-        <v>2.727272727272726</v>
-      </c>
-      <c r="D52">
-        <v>0.9090909090909093</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0.9090909090909083</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>2.727272727272725</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="C53">
-        <v>3.157894736842104</v>
-      </c>
-      <c r="D53">
-        <v>2.105263157894737</v>
-      </c>
-      <c r="E53">
-        <v>0.5263157894736843</v>
-      </c>
-      <c r="F53">
-        <v>1.578947368421053</v>
-      </c>
-      <c r="G53">
-        <v>0.5263157894736837</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>1.052631578947367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>1.578947368421053</v>
-      </c>
-      <c r="C54">
-        <v>2.63157894736842</v>
-      </c>
-      <c r="D54">
-        <v>1.578947368421053</v>
-      </c>
-      <c r="E54">
-        <v>0.5263157894736843</v>
-      </c>
-      <c r="F54">
-        <v>2.105263157894737</v>
-      </c>
-      <c r="G54">
-        <v>0.5263157894736837</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1.052631578947367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="C55">
-        <v>1.76470588235294</v>
-      </c>
-      <c r="D55">
-        <v>0.5882352941176472</v>
-      </c>
-      <c r="E55">
-        <v>2.941176470588236</v>
-      </c>
-      <c r="F55">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="G55">
-        <v>0.5882352941176465</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0.5882352941176472</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1.176470588235293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>1.875</v>
-      </c>
-      <c r="C56">
-        <v>1.25</v>
-      </c>
-      <c r="D56">
-        <v>2.5</v>
-      </c>
-      <c r="E56">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="F56">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="G56">
-        <v>0.6249999999999994</v>
-      </c>
-      <c r="H56">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="I56">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1.249999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D57">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="E57">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0.8333333333333326</v>
-      </c>
-      <c r="H57">
-        <v>2.5</v>
-      </c>
-      <c r="I57">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1.666666666666665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>1.874999999999999</v>
-      </c>
-      <c r="D58">
-        <v>1.25</v>
-      </c>
-      <c r="E58">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="F58">
-        <v>2.5</v>
-      </c>
-      <c r="G58">
-        <v>0.6249999999999994</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>3.124999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>2.5</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>2.5</v>
-      </c>
-      <c r="I59">
-        <v>2.5</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>1.666666666666665</v>
-      </c>
-      <c r="H60">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>3.33333333333333</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>3.33333333333333</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>10</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>9.999999999999996</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
       </c>

--- a/exports/PackSize-Flexibility/3-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/3-RandomVariable.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9720812182741116</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.9593908629441624</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.949238578680203</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9314720812182741</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.8984771573604061</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8908629441624365</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1567,22 +1567,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.8908629441624365</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0532994923857868</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9086294416243654</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9263959390862944</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9187817258883249</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9593908629441624</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9771573604060914</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9771573604060914</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9517766497461929</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9517766497461929</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2267,16 +2267,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9568527918781726</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.9670050761421319</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.9593908629441624</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3816,480 +3816,3240 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F27">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G27">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E30">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F30">
+        <v>0.25</v>
+      </c>
+      <c r="G30">
+        <v>0.25</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K30">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+      <c r="D31">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="K31">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D32">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E32">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="F32">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="G32">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="H32">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="I32">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="J32">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="K32">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="F33">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="J33">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="K33">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E34">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="F34">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I34">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="J34">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="K34">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="C35">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="D35">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="J35">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E36">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="F36">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="J36">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0.04</v>
+      </c>
+      <c r="C37">
+        <v>0.12</v>
+      </c>
+      <c r="D37">
+        <v>0.16</v>
+      </c>
+      <c r="E37">
+        <v>0.16</v>
+      </c>
+      <c r="F37">
+        <v>0.08</v>
+      </c>
+      <c r="G37">
+        <v>0.04</v>
+      </c>
+      <c r="H37">
+        <v>0.08</v>
+      </c>
+      <c r="I37">
+        <v>0.16</v>
+      </c>
+      <c r="J37">
+        <v>0.08</v>
+      </c>
+      <c r="K37">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+      <c r="G38">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J38">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K38">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C39">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J39">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="C40">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>0.3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C41">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D41">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="I41">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C42">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="I42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+      <c r="H43">
+        <v>0.25</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C44">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F44">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C45">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D45">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E45">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H45">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0.2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0.25</v>
+      </c>
+      <c r="D49">
+        <v>0.25</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.25</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.6</v>
+      </c>
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+      <c r="G51">
+        <v>0.2</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C52">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F52">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E53">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F53">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G53">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H53">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E54">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="F54">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="J54">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K54">
+        <v>0.05882352941176471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="E55">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="F55">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G55">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="H55">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K55">
+        <v>0.05882352941176471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D56">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E56">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="D57">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="E57">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C58">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D58">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E58">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0.25</v>
+      </c>
+      <c r="C59">
+        <v>0.25</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C61">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C62">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4377,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4412,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4447,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4482,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4517,7 +7277,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4552,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4587,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4622,7 +7382,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4657,7 +7417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4692,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4727,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4762,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4797,7 +7557,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4832,7 +7592,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4867,7 +7627,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4902,7 +7662,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4937,7 +7697,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4972,7 +7732,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5007,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5042,7 +7802,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5077,13 +7837,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5112,13 +7872,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5147,7 +7907,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5182,10 +7942,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5217,13 +7977,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5252,13 +8012,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5287,13 +8047,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9796954314720812</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5322,19 +8082,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.967005076142132</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5357,19 +8117,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9568527918781726</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5392,19 +8152,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9365482233502538</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5427,22 +8187,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9060913705583757</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5462,25 +8222,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8934010152284264</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5497,22 +8257,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9035532994923858</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5532,22 +8292,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9187817258883249</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5567,19 +8327,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9492385786802031</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5602,22 +8362,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9365482233502538</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -5637,16 +8397,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5672,19 +8432,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5707,16 +8467,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9771573604060915</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5742,19 +8502,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5777,13 +8537,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5804,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5812,16 +8572,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5847,13 +8607,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5917,10 +8677,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5952,10 +8712,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -5987,10 +8747,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6057,13 +8817,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6092,10 +8852,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6127,13 +8887,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6162,13 +8922,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6197,13 +8957,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9796954314720812</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6232,10 +8992,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6267,13 +9027,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6302,10 +9062,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6337,10 +9097,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6372,13 +9132,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6407,10 +9167,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6442,10 +9202,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6512,13 +9272,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6617,7 +9377,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6652,7 +9412,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6722,7 +9482,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6757,7 +9517,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6792,7 +9552,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6827,10 +9587,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6862,7 +9622,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6897,7 +9657,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6932,7 +9692,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6967,7 +9727,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7072,7 +9832,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7107,7 +9867,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7177,7 +9937,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7212,7 +9972,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7282,7 +10042,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7317,7 +10077,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7352,7 +10112,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7387,7 +10147,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7422,7 +10182,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -7457,7 +10217,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7466,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -7492,7 +10252,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7527,7 +10287,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7562,7 +10322,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -7597,7 +10357,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7632,7 +10392,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7667,7 +10427,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7746,480 +10506,3360 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="C26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D26">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="C27">
+        <v>0.2857142857142856</v>
+      </c>
+      <c r="D27">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="E27">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F27">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.1428571428571427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.1999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0.09999999999999992</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.09999999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.1874999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.3125000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.125</v>
+      </c>
+      <c r="F30">
+        <v>0.125</v>
+      </c>
+      <c r="G30">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.06249999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31">
+        <v>0.15</v>
+      </c>
+      <c r="D31">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.05000000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.1499999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="C32">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="D32">
+        <v>0.1481481481481482</v>
+      </c>
+      <c r="E32">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="F32">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G32">
+        <v>0.037037037037037</v>
+      </c>
+      <c r="H32">
+        <v>0.03703703703703705</v>
+      </c>
+      <c r="I32">
+        <v>0.03703703703703705</v>
+      </c>
+      <c r="J32">
+        <v>0.03703703703703705</v>
+      </c>
+      <c r="K32">
+        <v>0.074074074074074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0.025</v>
+      </c>
+      <c r="C33">
+        <v>0.15</v>
+      </c>
+      <c r="D33">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.2750000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.02500000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.02500000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="D34">
+        <v>0.2790697674418605</v>
+      </c>
+      <c r="E34">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="F34">
+        <v>0.09302325581395351</v>
+      </c>
+      <c r="G34">
+        <v>0.06976744186046506</v>
+      </c>
+      <c r="H34">
+        <v>0.06976744186046513</v>
+      </c>
+      <c r="I34">
+        <v>0.02325581395348838</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.04651162790697671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="D35">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="E35">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F35">
+        <v>0.04761904761904763</v>
+      </c>
+      <c r="G35">
+        <v>0.09523809523809516</v>
+      </c>
+      <c r="H35">
+        <v>0.04761904761904763</v>
+      </c>
+      <c r="I35">
+        <v>0.04761904761904763</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.07142857142857138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.1944444444444445</v>
+      </c>
+      <c r="E36">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="F36">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G36">
+        <v>0.02777777777777775</v>
+      </c>
+      <c r="H36">
+        <v>0.02777777777777779</v>
+      </c>
+      <c r="I36">
+        <v>0.02777777777777779</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.0555555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0.03448275862068966</v>
+      </c>
+      <c r="C37">
+        <v>0.3448275862068965</v>
+      </c>
+      <c r="D37">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="E37">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="F37">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="I37">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.1034482758620689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0.09677419354838711</v>
+      </c>
+      <c r="C38">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="D38">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="E38">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="F38">
+        <v>0.06451612903225808</v>
+      </c>
+      <c r="G38">
+        <v>0.09677419354838702</v>
+      </c>
+      <c r="H38">
+        <v>0.03225806451612904</v>
+      </c>
+      <c r="I38">
+        <v>0.09677419354838712</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.06451612903225801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0.0625</v>
+      </c>
+      <c r="C39">
+        <v>0.125</v>
+      </c>
+      <c r="D39">
+        <v>0.125</v>
+      </c>
+      <c r="E39">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.5624999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.08333333333333331</v>
+      </c>
+      <c r="D40">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F40">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G40">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="K40">
+        <v>0.1666666666666665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.08333333333333331</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="F41">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="G41">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="H41">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="F42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.444444444444444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.1999999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.1428571428571427</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+      <c r="C45">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="G45">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.1249999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.6666666666666661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.6666666666666661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.75</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.2</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C52">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D52">
+        <v>0.09090909090909094</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.09090909090909083</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.2727272727272725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="C53">
+        <v>0.3157894736842104</v>
+      </c>
+      <c r="D53">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E53">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="F53">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="G53">
+        <v>0.05263157894736838</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="C54">
+        <v>0.263157894736842</v>
+      </c>
+      <c r="D54">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="E54">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="F54">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="G54">
+        <v>0.05263157894736838</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C55">
+        <v>0.176470588235294</v>
+      </c>
+      <c r="D55">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="E55">
+        <v>0.2941176470588236</v>
+      </c>
+      <c r="F55">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="G55">
+        <v>0.05882352941176466</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.1176470588235293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0.1875</v>
+      </c>
+      <c r="C56">
+        <v>0.125</v>
+      </c>
+      <c r="D56">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.06249999999999994</v>
+      </c>
+      <c r="H56">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.1249999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.08333333333333331</v>
+      </c>
+      <c r="D57">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="E57">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="H57">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="I57">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.1666666666666665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.1874999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.125</v>
+      </c>
+      <c r="E58">
+        <v>0.06250000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.06249999999999994</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.3124999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="I59">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.1666666666666665</v>
+      </c>
+      <c r="H60">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
